--- a/biology/Zoologie/Apalone_spinifera/Apalone_spinifera.xlsx
+++ b/biology/Zoologie/Apalone_spinifera/Apalone_spinifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apalone spinifera, la Tortue-molle à épines,  est une espèce de tortues de la famille des Trionychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apalone spinifera, la Tortue-molle à épines,  est une espèce de tortues de la famille des Trionychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Nord. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Nord. Elle se rencontre :
 au Canada dans les provinces d'Ontario et du Québec ;
 au Mexique dans les États du Chihuahua, du Coahuila, du Nuevo León et du Tamaulipas ;
 aux États-Unis.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de tortue d'eau douce dont il existe de nombreuses sous-espèces difficiles à distinguer.
 La carapace dorsale quasi circulaire de la tortue à carapace molle ressemble à une crêpe ; elle est recouverte d'une peau coriace plutôt que de dures plaques cornées, comme la plupart des carapaces de tortues. Chez les grosses femelles elle peut atteindre environ 43 cm de longueur.
@@ -579,9 +595,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (30 juin 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (30 juin 2011) :
 Apalone spinifera aspera (Agassiz, 1857)
 Apalone spinifera atra (Webb &amp; Legler, 1960)
 Apalone spinifera emoryi (Agassiz, 1857)
@@ -615,7 +633,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agassiz, 1857 : Contributions to the Natural History of the United States of America. Little, Brown &amp; Co., Boston, vol. 1, p. 1-452 (texte intégral).
 Lesueur, 1827 : Note sur deux espèces de tortues, du genre Trionyx de M. Geoffroy–Saint–Hilaire. Mémoires du Musée d’Histoire Naturelle, Paris, vol. 15, p. 257–268 (texte intégral).
